--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_282__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_282__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5420,28 +5420,28 @@
                   <c:v>12.59351921081543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.7977113127708435</c:v>
+                  <c:v>-0.7977172136306763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.70762634277344</c:v>
+                  <c:v>25.7076244354248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.830387592315674</c:v>
+                  <c:v>-4.830384731292725</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.41780090332031</c:v>
+                  <c:v>94.41780853271484</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>53.80071258544922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.171583771705627</c:v>
+                  <c:v>-1.171586751937866</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-1.144118785858154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.84178161621094</c:v>
+                  <c:v>89.84177398681641</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-1.177404284477234</c:v>
@@ -5450,7 +5450,7 @@
                   <c:v>92.95098114013672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.114229679107666</c:v>
+                  <c:v>-1.114226698875427</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-1.173949122428894</c:v>
@@ -5465,7 +5465,7 @@
                   <c:v>85.74267578125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.71727752685547</c:v>
+                  <c:v>79.71726989746094</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>94.41265106201172</c:v>
@@ -5492,13 +5492,13 @@
                   <c:v>-1.073942422866821</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.192226648330688</c:v>
+                  <c:v>-1.19222366809845</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-1.166558504104614</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.149871587753296</c:v>
+                  <c:v>-1.149868726730347</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>88.45858001708984</c:v>
@@ -5507,34 +5507,34 @@
                   <c:v>-1.172921061515808</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>94.40548706054688</c:v>
+                  <c:v>94.40549468994141</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>94.41506195068359</c:v>
+                  <c:v>94.41505432128906</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.205040097236633</c:v>
+                  <c:v>-1.205037117004395</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>91.42982482910156</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4275798499584198</c:v>
+                  <c:v>0.4275768995285034</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>93.27462768554688</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.9971944093704224</c:v>
+                  <c:v>-0.9971973299980164</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>85.89665222167969</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70.09473419189453</c:v>
+                  <c:v>70.0947265625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42.67971420288086</c:v>
+                  <c:v>42.67971801757812</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>94.35636138916016</c:v>
@@ -5552,7 +5552,7 @@
                   <c:v>-1.190046906471252</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.166096091270447</c:v>
+                  <c:v>-1.166093111038208</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>94.41745758056641</c:v>
@@ -5582,7 +5582,7 @@
                   <c:v>94.11988067626953</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.223662257194519</c:v>
+                  <c:v>-1.22365927696228</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>94.37924957275391</c:v>
@@ -5591,7 +5591,7 @@
                   <c:v>94.40385437011719</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.140077471733093</c:v>
+                  <c:v>-1.140080332756042</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>94.12313079833984</c:v>
@@ -5600,7 +5600,7 @@
                   <c:v>-1.153158903121948</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.156493425369263</c:v>
+                  <c:v>-1.156496286392212</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>13.78798198699951</c:v>
@@ -5630,16 +5630,16 @@
                   <c:v>94.38831329345703</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>89.53969573974609</c:v>
+                  <c:v>89.53968811035156</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>94.40037536621094</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-1.194379925727844</c:v>
+                  <c:v>-1.194382786750793</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>94.40958404541016</c:v>
+                  <c:v>94.40957641601562</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>94.40377807617188</c:v>
@@ -5663,7 +5663,7 @@
                   <c:v>63.60127639770508</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.170081496238708</c:v>
+                  <c:v>-1.170087337493896</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>-1.177969813346863</c:v>
@@ -5675,13 +5675,13 @@
                   <c:v>-1.541020035743713</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.4349792301654816</c:v>
+                  <c:v>-0.4349763095378876</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>94.40889739990234</c:v>
+                  <c:v>94.40890502929688</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.091757535934448</c:v>
+                  <c:v>-1.091763496398926</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>93.72653961181641</c:v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.7977113127708435</v>
+        <v>-0.7977172136306763</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>25.70762634277344</v>
+        <v>25.7076244354248</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-4.830387592315674</v>
+        <v>-4.830384731292725</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>94.41780090332031</v>
+        <v>94.41780853271484</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.171583771705627</v>
+        <v>-1.171586751937866</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>89.84178161621094</v>
+        <v>89.84177398681641</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-1.114229679107666</v>
+        <v>-1.114226698875427</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>63.9475</v>
       </c>
       <c r="F18">
-        <v>79.71727752685547</v>
+        <v>79.71726989746094</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-1.192226648330688</v>
+        <v>-1.19222366809845</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-1.149871587753296</v>
+        <v>-1.149868726730347</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>94.40548706054688</v>
+        <v>94.40549468994141</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>94.41506195068359</v>
+        <v>94.41505432128906</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-1.205040097236633</v>
+        <v>-1.205037117004395</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.4275798499584198</v>
+        <v>0.4275768995285034</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.9971944093704224</v>
+        <v>-0.9971973299980164</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>70.09473419189453</v>
+        <v>70.0947265625</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>42.67971420288086</v>
+        <v>42.67971801757812</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-1.166096091270447</v>
+        <v>-1.166093111038208</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-1.223662257194519</v>
+        <v>-1.22365927696228</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-1.140077471733093</v>
+        <v>-1.140080332756042</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-1.156493425369263</v>
+        <v>-1.156496286392212</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>89.53969573974609</v>
+        <v>89.53968811035156</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-1.194379925727844</v>
+        <v>-1.194382786750793</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>94.40958404541016</v>
+        <v>94.40957641601562</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-1.170081496238708</v>
+        <v>-1.170087337493896</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-0.4349792301654816</v>
+        <v>-0.4349763095378876</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>94.40889739990234</v>
+        <v>94.40890502929688</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-1.091757535934448</v>
+        <v>-1.091763496398926</v>
       </c>
     </row>
     <row r="91" spans="1:6">
